--- a/Data/DsReds/data.xlsx
+++ b/Data/DsReds/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OOP\ProRF_detail\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OOP\ProRF_example\Data\DsReds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E099F707-1887-4DD4-8C7E-5499352D6FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B80BDD6-2083-4C75-B521-BF9C7E12AFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1335" yWindow="3270" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="4005" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -100,9 +100,6 @@
     <t>RDSmCherry0.1</t>
   </si>
   <si>
-    <t>rsCherryRev1.4</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1002/cphc.201301016</t>
   </si>
   <si>
@@ -243,6 +240,10 @@
   </si>
   <si>
     <t>mRFP1.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsCherryRev1.4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -600,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -801,7 +802,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>570</v>
@@ -925,7 +926,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>572</v>
@@ -934,12 +935,12 @@
         <v>609</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>572</v>
@@ -957,12 +958,12 @@
         <v>0.42</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>572</v>
@@ -980,12 +981,12 @@
         <v>1.6</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>564</v>
@@ -1014,7 +1015,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>589</v>
@@ -1040,7 +1041,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>587</v>
@@ -1067,12 +1068,12 @@
         <v>1.4</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>574</v>
@@ -1096,12 +1097,12 @@
         <v>50</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>549</v>
@@ -1128,12 +1129,12 @@
         <v>2.7</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>568</v>
@@ -1160,12 +1161,12 @@
         <v>2.9</v>
       </c>
       <c r="J21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>548</v>
@@ -1189,12 +1190,12 @@
         <v>150</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>540</v>
@@ -1218,12 +1219,12 @@
         <v>60</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>568</v>
@@ -1244,12 +1245,12 @@
         <v>5.7</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>598</v>
@@ -1267,12 +1268,12 @@
         <v>12.9</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26">
         <v>590</v>
@@ -1287,12 +1288,12 @@
         <v>4.7</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27">
         <v>590</v>
@@ -1316,12 +1317,12 @@
         <v>100</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>590</v>
@@ -1330,12 +1331,12 @@
         <v>612</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>487</v>
@@ -1356,12 +1357,12 @@
         <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>608</v>
@@ -1382,12 +1383,12 @@
         <v>7</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31">
         <v>605</v>
@@ -1408,12 +1409,12 @@
         <v>6.3</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32">
         <v>595</v>
@@ -1437,12 +1438,12 @@
         <v>70</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>589</v>
@@ -1451,12 +1452,12 @@
         <v>612</v>
       </c>
       <c r="J33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>584</v>
@@ -1480,12 +1481,12 @@
         <v>60</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35">
         <v>476</v>
@@ -1506,12 +1507,12 @@
         <v>3.8</v>
       </c>
       <c r="J35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36">
         <v>554</v>
@@ -1535,12 +1536,12 @@
         <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37">
         <v>552</v>
@@ -1564,12 +1565,12 @@
         <v>120</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38">
         <v>551</v>
@@ -1578,12 +1579,12 @@
         <v>579</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39">
         <v>560</v>
@@ -1607,12 +1608,12 @@
         <v>72</v>
       </c>
       <c r="J39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>540</v>
@@ -1636,12 +1637,12 @@
         <v>78</v>
       </c>
       <c r="J40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>611</v>
@@ -1665,12 +1666,12 @@
         <v>24</v>
       </c>
       <c r="J41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42">
         <v>560</v>
@@ -1691,12 +1692,12 @@
         <v>72</v>
       </c>
       <c r="J42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43">
         <v>554</v>
@@ -1717,12 +1718,12 @@
         <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44">
         <v>554</v>
@@ -1751,7 +1752,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45">
         <v>558</v>
@@ -1772,7 +1773,7 @@
         <v>1600</v>
       </c>
       <c r="J45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
